--- a/docs/Mitsubishi_Electric_Inverter_IR_Decoding.xlsx
+++ b/docs/Mitsubishi_Electric_Inverter_IR_Decoding.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1080" windowWidth="33100" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="1080" windowWidth="16860" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IR Codes" sheetId="1" r:id="rId1"/>
     <sheet name="IR Code Summary Details" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IR Code Summary Details'!$B$15:$E$23</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="43">
   <si>
     <t>Sets</t>
   </si>
@@ -116,12 +119,54 @@
   <si>
     <t>{900,100, 500,350, 100,100, 600}</t>
   </si>
+  <si>
+    <t>49B0F625</t>
+  </si>
+  <si>
+    <t>{850,200, 200,200, 200}</t>
+  </si>
+  <si>
+    <t>FECB4122</t>
+  </si>
+  <si>
+    <t>{950,100, 900,150, 300,300, 300}</t>
+  </si>
+  <si>
+    <t>{900,100, 950,100, 200,300, 200}</t>
+  </si>
+  <si>
+    <t>BFE48DD8</t>
+  </si>
+  <si>
+    <t>F09EEED0</t>
+  </si>
+  <si>
+    <t>{500,100, 300,150, 800,200, 200,200, 550}</t>
+  </si>
+  <si>
+    <t>DCC262AA</t>
+  </si>
+  <si>
+    <t>{500,100, 350,100, 900,100, 300,350, 300}</t>
+  </si>
+  <si>
+    <t>46172D8E</t>
+  </si>
+  <si>
+    <t>{950,100, 900,150, 300,300, 200}</t>
+  </si>
+  <si>
+    <t>75D18CF4</t>
+  </si>
+  <si>
+    <t>{550,100, 300,1450, 900,100, 300,350, 300}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,24 +201,43 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Anago-Book"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Anago-Book"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Anago-Book"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Anago-Book"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Anago-Book"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Anago-Book"/>
     </font>
   </fonts>
   <fills count="4">
@@ -217,13 +281,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,29 +292,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -453,7 +528,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -567,10 +642,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,10 +756,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,7 +870,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -912,7 +987,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-403899088"/>
-        <c:axId val="-381137520"/>
+        <c:axId val="-705351424"/>
+        <c:axId val="-705349104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-403899088"/>
+        <c:axId val="-705351424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +1050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-381137520"/>
+        <c:crossAx val="-705349104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +1058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-381137520"/>
+        <c:axId val="-705349104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1093,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-403899088"/>
+        <c:crossAx val="-705351424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1269,10 +1344,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.0</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,10 +1458,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,7 +1572,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
@@ -1728,7 +1803,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +1818,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8FDE36A7</c:v>
+                  <c:v>49B0F625</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1774,9 +1849,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1841,10 +1914,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1933,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="-370135312"/>
-        <c:axId val="-370133536"/>
+        <c:axId val="-661500512"/>
+        <c:axId val="-661497248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-370135312"/>
+        <c:axId val="-661500512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-370133536"/>
+        <c:crossAx val="-661497248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-370133536"/>
+        <c:axId val="-661497248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +2023,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-370135312"/>
+        <c:crossAx val="-661500512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3571,1379 +3644,2063 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J106"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="12.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="7"/>
-    <col min="7" max="8" width="12.83203125" style="8" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="9"/>
+    <col min="3" max="4" width="12.83203125" style="13" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="9"/>
+    <col min="7" max="8" width="12.83203125" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="26" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:10" ht="27" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="5" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="5" spans="2:10" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+    <row r="7" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+      <c r="G7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
+      <c r="G8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+      <c r="H9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
+      <c r="H11" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="11">
         <v>6</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
+      <c r="H12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="11">
         <v>7</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6" t="s">
+    <row r="14" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
+        <v>8</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
+      <c r="H14" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
         <v>9</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
+      <c r="G15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11">
         <v>10</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+      <c r="H16" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="11">
         <v>11</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
+    <row r="18" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="C18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
         <v>12</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4">
+      <c r="H18" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="D19" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11">
         <v>13</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4">
+    <row r="20" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="11">
         <v>14</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4">
+      <c r="H20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
         <v>15</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="C21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
         <v>15</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4">
+      <c r="G21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
         <v>16</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="F22" s="4">
+      <c r="C22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11">
         <v>16</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="4">
+      <c r="G22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
         <v>17</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="F23" s="4">
+      <c r="C23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="11">
         <v>17</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
+      <c r="G23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
         <v>18</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="F24" s="4">
+      <c r="C24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="11">
         <v>18</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4">
+      <c r="G24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
         <v>19</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="F25" s="4">
+      <c r="C25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11">
         <v>19</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="4">
+      <c r="G25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
         <v>20</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="F26" s="4">
+      <c r="C26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11">
         <v>20</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="4">
+      <c r="G26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
         <v>21</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="F27" s="4">
+      <c r="C27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="11">
         <v>21</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="4">
+      <c r="G27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>22</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="F28" s="4">
+      <c r="C28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11">
         <v>22</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
+      <c r="G28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
         <v>23</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="F29" s="4">
+      <c r="C29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="11">
         <v>23</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
+      <c r="G29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
         <v>24</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="F30" s="4">
+      <c r="C30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="11">
         <v>24</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="4">
+      <c r="G30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="F31" s="4">
+      <c r="C31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="11">
         <v>25</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="4">
+      <c r="G31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
         <v>26</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="F32" s="4">
+      <c r="C32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="11">
         <v>26</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
+      <c r="G32" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="F33" s="4">
+      <c r="C33" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="11">
         <v>27</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
+      <c r="G33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
         <v>28</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="F34" s="4">
+      <c r="C34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="11">
         <v>28</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="4">
+      <c r="G34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
         <v>29</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="F35" s="4">
+      <c r="C35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="11">
         <v>29</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4">
+      <c r="G35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
         <v>30</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="F36" s="4">
+      <c r="C36" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="11">
         <v>30</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="4">
+      <c r="G36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
         <v>31</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="F37" s="4">
+      <c r="C37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="11">
         <v>31</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="4">
+      <c r="G37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
         <v>32</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="4">
+      <c r="C38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="11">
         <v>32</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="4">
+      <c r="G38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
         <v>33</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="F39" s="4">
+      <c r="C39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="11">
         <v>33</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="4">
+      <c r="G39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
         <v>34</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="F40" s="4">
+      <c r="C40" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="11">
         <v>34</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4">
+      <c r="G40" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
         <v>35</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="4">
+      <c r="C41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="11">
         <v>35</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="4">
+      <c r="G41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
         <v>36</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="4">
+      <c r="C42" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="11">
         <v>36</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="4">
+      <c r="G42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
         <v>37</v>
       </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="4">
+      <c r="C43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="11">
         <v>37</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="4">
+      <c r="G43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
         <v>38</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="4">
+      <c r="C44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="11">
         <v>38</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4">
+      <c r="G44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
         <v>39</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="F45" s="4">
+      <c r="C45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="11">
         <v>39</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="4">
+      <c r="G45" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
         <v>40</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="F46" s="4">
+      <c r="C46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="11">
         <v>40</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="4">
+      <c r="G46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
         <v>41</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="F47" s="4">
+      <c r="C47" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="11">
         <v>41</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="4">
+      <c r="G47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
         <v>42</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="F48" s="4">
+      <c r="C48" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="11">
         <v>42</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="4">
+      <c r="G48" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
         <v>43</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="F49" s="4">
+      <c r="C49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11">
         <v>43</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="4">
+      <c r="G49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
         <v>44</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="F50" s="4">
+      <c r="C50" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="11">
         <v>44</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="4">
+      <c r="G50" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
         <v>45</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="F51" s="4">
+      <c r="C51" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="11">
         <v>45</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4">
+      <c r="G51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
         <v>46</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="F52" s="4">
+      <c r="C52" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11">
         <v>46</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="4">
+      <c r="G52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="11">
         <v>47</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="F53" s="4">
+      <c r="C53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11">
         <v>47</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="4">
+      <c r="G53" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="11">
         <v>48</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="F54" s="4">
+      <c r="C54" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="11">
         <v>48</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="4">
+      <c r="G54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="11">
         <v>49</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="F55" s="4">
+      <c r="C55" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="11">
         <v>49</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="4">
+      <c r="G55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11">
         <v>50</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="F56" s="4">
+      <c r="C56" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11">
         <v>50</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="4">
+      <c r="G56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="11">
         <v>51</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="F57" s="4">
+      <c r="C57" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="11">
         <v>51</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="4">
+      <c r="G57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="11">
         <v>52</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="F58" s="4">
+      <c r="C58" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="11">
         <v>52</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="4">
+      <c r="G58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="11">
         <v>53</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="F59" s="4">
+      <c r="C59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="11">
         <v>53</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="4">
+      <c r="G59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11">
         <v>54</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="F60" s="4">
+      <c r="C60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="11">
         <v>54</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="4">
+      <c r="G60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="11">
         <v>55</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="F61" s="4">
+      <c r="C61" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="11">
         <v>55</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="4">
+      <c r="G61" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11">
         <v>56</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="F62" s="4">
+      <c r="C62" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="11">
         <v>56</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="4">
+      <c r="G62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="11">
         <v>57</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="F63" s="4">
+      <c r="C63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="11">
         <v>57</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="4">
+      <c r="G63" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11">
         <v>58</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="F64" s="4">
+      <c r="C64" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="11">
         <v>58</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="4">
+      <c r="G64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="11">
         <v>59</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="F65" s="4">
+      <c r="C65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="11">
         <v>59</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="4">
+      <c r="G65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="11">
         <v>60</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="F66" s="4">
+      <c r="C66" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="11">
         <v>60</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="4">
+      <c r="G66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="11">
         <v>61</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="F67" s="4">
+      <c r="C67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="11">
         <v>61</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="4">
+      <c r="G67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="11">
         <v>62</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="F68" s="4">
+      <c r="C68" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="11">
         <v>62</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="4">
+      <c r="G68" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="11">
         <v>63</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="F69" s="4">
+      <c r="C69" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11">
         <v>63</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="4">
+      <c r="G69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="11">
         <v>64</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="F70" s="4">
+      <c r="C70" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="11">
         <v>64</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="4">
+      <c r="G70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="11">
         <v>65</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="F71" s="4">
+      <c r="C71" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="11">
         <v>65</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="4">
+      <c r="G71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="11">
         <v>66</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="F72" s="4">
+      <c r="C72" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="11">
         <v>66</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="4">
+      <c r="G72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11">
         <v>67</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="F73" s="4">
+      <c r="C73" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="11">
         <v>67</v>
       </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="4">
+      <c r="G73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="11">
         <v>68</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="F74" s="4">
+      <c r="C74" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="11">
         <v>68</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="4">
+      <c r="G74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="11">
         <v>69</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="F75" s="4">
+      <c r="C75" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="11">
         <v>69</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="4">
+      <c r="G75" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="11">
         <v>70</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="F76" s="4">
+      <c r="C76" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="11">
         <v>70</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="4">
+      <c r="G76" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="11">
         <v>71</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="F77" s="4">
+      <c r="C77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="11">
         <v>71</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="4">
+      <c r="G77" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="11">
         <v>72</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="F78" s="4">
+      <c r="C78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="11">
         <v>72</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="4">
+      <c r="G78" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="11">
         <v>73</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="4">
+      <c r="C79" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="11">
         <v>73</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="4">
+      <c r="G79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="11">
         <v>74</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="F80" s="4">
+      <c r="C80" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="11">
         <v>74</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="4">
+      <c r="G80" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="11">
         <v>75</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="F81" s="4">
+      <c r="C81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="11">
         <v>75</v>
       </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="4">
+      <c r="G81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="11">
         <v>76</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="F82" s="4">
+      <c r="C82" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="11">
         <v>76</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="4">
+      <c r="G82" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="11">
         <v>77</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="F83" s="4">
+      <c r="C83" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="11">
         <v>77</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="4">
+      <c r="G83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="11">
         <v>78</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="F84" s="4">
+      <c r="C84" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="11">
         <v>78</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="4">
+      <c r="G84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="11">
         <v>79</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="F85" s="4">
+      <c r="C85" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="11">
         <v>79</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="4">
+      <c r="G85" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="11">
         <v>80</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="F86" s="4">
+      <c r="C86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="11">
         <v>80</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="4">
+      <c r="G86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="11">
         <v>81</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="F87" s="4">
+      <c r="C87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="11">
         <v>81</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="4">
+      <c r="G87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="11">
         <v>82</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="F88" s="4">
+      <c r="C88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="11">
         <v>82</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="4">
+      <c r="G88" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="11">
         <v>83</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="4">
+      <c r="C89" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="11">
         <v>83</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="4">
+      <c r="G89" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="11">
         <v>84</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="F90" s="4">
+      <c r="C90" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="11">
         <v>84</v>
       </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="4">
+      <c r="G90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="11">
         <v>85</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="F91" s="4">
+      <c r="C91" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="11">
         <v>85</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="4">
+      <c r="G91" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="11">
         <v>86</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="F92" s="4">
+      <c r="C92" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="11">
         <v>86</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="4">
+      <c r="G92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="11">
         <v>87</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="4">
+      <c r="C93" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="11">
         <v>87</v>
       </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="4">
+      <c r="G93" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="11">
         <v>88</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="F94" s="4">
+      <c r="C94" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="11">
         <v>88</v>
       </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="4">
+      <c r="G94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="11">
         <v>89</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="F95" s="4">
+      <c r="C95" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="11">
         <v>89</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="4">
+      <c r="G95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="11">
         <v>90</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="F96" s="4">
+      <c r="C96" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="11">
         <v>90</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="4">
+      <c r="G96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="11">
         <v>91</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="F97" s="4">
+      <c r="C97" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="11">
         <v>91</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="4">
+      <c r="G97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="11">
         <v>92</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="F98" s="4">
+      <c r="C98" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="11">
         <v>92</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="4">
+      <c r="G98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="11">
         <v>93</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="F99" s="4">
+      <c r="C99" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="11">
         <v>93</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="4">
+      <c r="G99" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="11">
         <v>94</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="F100" s="4">
+      <c r="C100" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="11">
         <v>94</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="4">
+      <c r="G100" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="11">
         <v>95</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="F101" s="4">
+      <c r="C101" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="11">
         <v>95</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="4">
+      <c r="G101" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="11">
         <v>96</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="F102" s="4">
+      <c r="C102" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="11">
         <v>96</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="4">
+      <c r="G102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="11">
         <v>97</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="F103" s="4">
+      <c r="C103" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="11">
         <v>97</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="4">
+      <c r="G103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="11">
         <v>98</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="F104" s="4">
+      <c r="C104" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="11">
         <v>98</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="4">
+      <c r="G104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="11">
         <v>99</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="F105" s="4">
+      <c r="C105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="11">
         <v>99</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="4">
+      <c r="G105" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="11">
         <v>100</v>
       </c>
-      <c r="F106" s="4">
+      <c r="C106" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="11">
         <v>100</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
+      <c r="G106" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4959,231 +5716,331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.83203125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="4">
         <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B3)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="11">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
         <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
         <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B4)</f>
+        <v>42</v>
+      </c>
+      <c r="D4" s="4">
+        <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B4)</f>
+        <v>91</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
-        <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B4)</f>
-        <v>14</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="C5" s="4">
         <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B5)</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="11">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
         <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B5)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="4">
         <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B6)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
         <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="4">
         <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B7)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="4">
         <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B7)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B8)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B10)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4">
+        <f>COUNTIF('IR Codes'!C7:C106, 'IR Code Summary Details'!B11)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <f>COUNTIF('IR Codes'!D7:D106, 'IR Code Summary Details'!B11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="12" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
         <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B16)</f>
-        <v>7</v>
-      </c>
-      <c r="D16" s="11">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4">
         <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B16)</f>
-        <v>12</v>
-      </c>
-      <c r="E16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="4">
         <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B17)</f>
-        <v>3</v>
-      </c>
-      <c r="D17" s="11">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
         <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="4">
         <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B18)</f>
-        <v>5</v>
-      </c>
-      <c r="D18" s="11">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4">
         <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B18)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="4">
         <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="4">
         <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B19)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="4">
         <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="4">
         <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B20)</f>
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4">
+        <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B22)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="4">
+        <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B22)</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="16" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4">
+        <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B23)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B23)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="E22" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C23" s="4">
         <f>COUNTIF('IR Codes'!G7:G106, 'IR Code Summary Details'!B21)</f>
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="11">
-        <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B21)</f>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4">
+        <f>COUNTIF('IR Codes'!G7:G108, 'IR Code Summary Details'!B24)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D24" s="4">
+        <f>COUNTIF('IR Codes'!H7:H106, 'IR Code Summary Details'!B24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="25" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:5" ht="32" customHeight="1" x14ac:dyDescent="0.2"/>
